--- a/original-sources/historical/demo/dshs_07_07.xlsx
+++ b/original-sources/historical/demo/dshs_07_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7940902-1151-4B0D-B6B6-5C051B34AFE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2250D2CD-85ED-436D-A374-2C0D18DCA592}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Tests by day" sheetId="4" r:id="rId4"/>
     <sheet name="Tests" sheetId="5" r:id="rId5"/>
     <sheet name="Antibody Tests" sheetId="6" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="7" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="8" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="9" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="10" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="11" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="12" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
+    <sheet name="Hospitalizations" sheetId="14" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="7" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="339">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 7/06 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 7/07 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -815,7 +815,7 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/06 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/07 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -848,7 +848,7 @@
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/06 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/07 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -860,7 +860,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/06 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/07 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -901,7 +901,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/06 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/07 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -922,7 +922,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 7/05 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 7/06 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -934,28 +934,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 7/06 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Hospital data</t>
-  </si>
-  <si>
-    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
-  </si>
-  <si>
-    <t>Total Texas Staffed Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas ICU Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Ventilators</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 7/06 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 7/07 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -964,7 +943,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 7/06 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 7/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1019,10 +998,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          23,242</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 7/06 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          23,607</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 7/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1034,7 +1013,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 7/06 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 7/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1055,19 +1034,40 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 7/06 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          680</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 7/06 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 7/06 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 7/07 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          689</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 7/07 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 7/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>06/16/2020-TDCJ*</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
+  </si>
+  <si>
+    <t>Total Texas Staffed Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Ventilators</t>
+  </si>
+  <si>
+    <t>Texas Statewide Hospitalization Data as of 7/07 at 9:30AM CST</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
     <numFmt numFmtId="175" formatCode="##0"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1106,6 +1106,32 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1173,10 +1199,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1237,9 +1264,34 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9465E8CB-5227-4364-B5FE-2034CF31B1D8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1408,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1430,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="C5" s="4">
         <v>9</v>
@@ -1441,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1452,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1474,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1485,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1496,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1540,7 +1592,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1551,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1523</v>
+        <v>1626</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -1562,10 +1614,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>14751</v>
+        <v>15102</v>
       </c>
       <c r="C17" s="4">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1606,10 +1658,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C21" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1617,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>2829</v>
+        <v>2925</v>
       </c>
       <c r="C22" s="4">
         <v>22</v>
@@ -1628,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>2484</v>
+        <v>2532</v>
       </c>
       <c r="C23" s="4">
         <v>34</v>
@@ -1639,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1650,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1661,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1716,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1727,7 +1779,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1738,7 +1790,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>2779</v>
+        <v>2880</v>
       </c>
       <c r="C33" s="4">
         <v>67</v>
@@ -1749,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
@@ -1771,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1782,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1793,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1804,7 +1856,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1837,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -1870,10 +1922,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>3521</v>
+        <v>3707</v>
       </c>
       <c r="C45" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1944,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1903,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="C48" s="4">
         <v>9</v>
@@ -1936,7 +1988,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1969,7 +2021,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="4">
         <v>9</v>
@@ -1980,7 +2032,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -1991,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2002,7 +2054,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2013,7 +2065,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2024,10 +2076,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>25840</v>
+        <v>27054</v>
       </c>
       <c r="C59" s="4">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,10 +2098,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C61" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2109,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C62" s="4">
         <v>17</v>
@@ -2079,7 +2131,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>3338</v>
+        <v>3403</v>
       </c>
       <c r="C64" s="4">
         <v>37</v>
@@ -2101,7 +2153,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2112,7 +2164,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2123,7 +2175,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2145,10 +2197,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>718</v>
+        <v>946</v>
       </c>
       <c r="C70" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,10 +2219,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>7461</v>
+        <v>7642</v>
       </c>
       <c r="C72" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,7 +2230,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>1046</v>
+        <v>1182</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2189,7 +2241,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2211,7 +2263,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
@@ -2244,7 +2296,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2266,10 +2318,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>4120</v>
+        <v>4286</v>
       </c>
       <c r="C81" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2329,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2299,7 +2351,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2310,7 +2362,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2321,10 +2373,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>3990</v>
+        <v>4586</v>
       </c>
       <c r="C86" s="4">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2384,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2343,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2365,7 +2417,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -2376,7 +2428,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2387,7 +2439,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
@@ -2398,7 +2450,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2409,7 +2461,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="C94" s="4">
         <v>13</v>
@@ -2420,7 +2472,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2431,7 +2483,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>858</v>
+        <v>896</v>
       </c>
       <c r="C96" s="4">
         <v>3</v>
@@ -2442,7 +2494,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>500</v>
+        <v>592</v>
       </c>
       <c r="C97" s="4">
         <v>7</v>
@@ -2497,7 +2549,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2508,10 +2560,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>36597</v>
+        <v>37776</v>
       </c>
       <c r="C103" s="4">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2519,7 +2571,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C104" s="4">
         <v>30</v>
@@ -2541,7 +2593,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2552,10 +2604,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>3088</v>
+        <v>3193</v>
       </c>
       <c r="C107" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,7 +2626,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C109" s="4">
         <v>4</v>
@@ -2607,7 +2659,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2618,7 +2670,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -2629,10 +2681,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,7 +2692,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2651,7 +2703,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2673,7 +2725,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="C118" s="4">
         <v>8</v>
@@ -2717,7 +2769,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2728,7 +2780,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2750,10 +2802,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>2727</v>
+        <v>2959</v>
       </c>
       <c r="C125" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,7 +2813,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2772,7 +2824,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2794,7 +2846,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2805,7 +2857,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2816,7 +2868,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>758</v>
+        <v>828</v>
       </c>
       <c r="C131" s="4">
         <v>5</v>
@@ -2827,7 +2879,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2860,7 +2912,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2871,7 +2923,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
@@ -2904,7 +2956,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2915,7 +2967,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -2926,7 +2978,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2948,7 +3000,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2970,7 +3022,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3003,7 +3055,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3036,7 +3088,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3069,10 +3121,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>2620</v>
+        <v>2918</v>
       </c>
       <c r="C154" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3080,7 +3132,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3102,7 +3154,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -3113,7 +3165,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3124,7 +3176,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3135,7 +3187,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3146,7 +3198,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="C161" s="4">
         <v>5</v>
@@ -3157,7 +3209,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3168,10 +3220,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>1684</v>
+        <v>1798</v>
       </c>
       <c r="C163" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3190,10 +3242,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C165" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3201,7 +3253,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3212,10 +3264,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>772</v>
+        <v>927</v>
       </c>
       <c r="C167" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,7 +3275,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3267,7 +3319,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>2353</v>
+        <v>2550</v>
       </c>
       <c r="C172" s="4">
         <v>37</v>
@@ -3278,7 +3330,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="C173" s="4">
         <v>15</v>
@@ -3289,7 +3341,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3311,7 +3363,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
@@ -3322,7 +3374,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="C177" s="4">
         <v>6</v>
@@ -3355,10 +3407,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>3796</v>
+        <v>4084</v>
       </c>
       <c r="C180" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,7 +3418,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3377,7 +3429,7 @@
         <v>183</v>
       </c>
       <c r="B182" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C182" s="4">
         <v>1</v>
@@ -3388,7 +3440,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="C183" s="4">
         <v>5</v>
@@ -3399,7 +3451,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3410,7 +3462,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C185" s="4">
         <v>24</v>
@@ -3421,7 +3473,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3432,7 +3484,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C187" s="4">
         <v>8</v>
@@ -3443,10 +3495,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C188" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,7 +3506,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3465,7 +3517,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2937</v>
+        <v>2978</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3487,7 +3539,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3498,7 +3550,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3542,10 +3594,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C197" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3553,7 +3605,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3564,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="B199" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -3586,7 +3638,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3608,7 +3660,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3619,7 +3671,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -3652,7 +3704,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3685,10 +3737,10 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C210" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,7 +3748,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -3707,7 +3759,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C212" s="4">
         <v>10</v>
@@ -3729,10 +3781,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>771</v>
+        <v>848</v>
       </c>
       <c r="C214" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,7 +3792,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3751,10 +3803,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="C216" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3762,7 +3814,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3773,7 +3825,7 @@
         <v>219</v>
       </c>
       <c r="B218" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -3795,7 +3847,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3806,7 +3858,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3817,10 +3869,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>14008</v>
+        <v>14828</v>
       </c>
       <c r="C222" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3828,7 +3880,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="C223" s="4">
         <v>6</v>
@@ -3850,7 +3902,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3872,10 +3924,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>742</v>
+        <v>842</v>
       </c>
       <c r="C227" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3883,7 +3935,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3894,10 +3946,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>11679</v>
+        <v>11926</v>
       </c>
       <c r="C229" s="4">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,7 +3968,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3927,7 +3979,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3938,7 +3990,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -3949,7 +4001,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -3971,7 +4023,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -3982,10 +4034,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>1063</v>
+        <v>1240</v>
       </c>
       <c r="C237" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,7 +4045,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4004,7 +4056,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4015,7 +4067,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4037,10 +4089,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>1868</v>
+        <v>1960</v>
       </c>
       <c r="C242" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4100,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4070,7 +4122,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="C245" s="4">
         <v>3</v>
@@ -4081,7 +4133,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4092,7 +4144,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4103,10 +4155,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>2469</v>
+        <v>3151</v>
       </c>
       <c r="C248" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,7 +4166,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4125,7 +4177,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4136,7 +4188,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4147,7 +4199,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4158,7 +4210,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4180,7 +4232,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4191,7 +4243,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4202,10 +4254,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>200557</v>
+        <v>210585</v>
       </c>
       <c r="C257" s="4">
-        <v>2655</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,7 +4278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4244,56 +4296,56 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B3" s="11">
-        <v>11250</v>
+        <v>11432</v>
       </c>
       <c r="C3" s="19">
         <f>B3/B$6</f>
-        <v>0.48403751828586178</v>
+        <v>0.4842631422883043</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B4" s="11">
-        <v>11778</v>
+        <v>11944</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50675501247741161</v>
+        <v>0.50595162451815134</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B5" s="11">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>9.2074692367266151E-3</v>
+        <v>9.7852331935442873E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4301,7 +4353,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>23242</v>
+        <v>23607</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
@@ -4310,14 +4362,14 @@
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4342,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4360,92 +4412,92 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B3" s="11">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C3" s="19">
         <f>B3/B$9</f>
-        <v>2.7063075466827295E-2</v>
+        <v>2.6686999618757149E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B4" s="11">
-        <v>2721</v>
+        <v>2747</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11707254108940711</v>
+        <v>0.1163637904011522</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B5" s="11">
-        <v>8907</v>
+        <v>9111</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>0.38322863781085964</v>
+        <v>0.38594484686745456</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B6" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>5.2060924188968251E-3</v>
+        <v>5.2103189731859192E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B7" s="11">
-        <v>5925</v>
+        <v>5971</v>
       </c>
       <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.25492642629722057</v>
+        <v>0.25293345194222056</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B8" s="11">
-        <v>4939</v>
+        <v>5025</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.21250322691678858</v>
+        <v>0.21286059219722964</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4453,7 +4505,7 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>23242</v>
+        <v>23607</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
@@ -4462,14 +4514,14 @@
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4489,18 +4541,18 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4512,25 +4564,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -4542,7 +4594,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -4554,7 +4606,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -4566,115 +4618,115 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>5.8823529411764705E-3</v>
+        <v>5.8055152394775036E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B7" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>1.6176470588235296E-2</v>
+        <v>1.741654571843251E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B8" s="12">
         <v>25</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>3.6764705882352942E-2</v>
+        <v>3.6284470246734396E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B9" s="12">
         <v>72</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>0.10588235294117647</v>
+        <v>0.10449927431059507</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B10" s="12">
         <v>70</v>
       </c>
       <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v>0.10294117647058823</v>
+        <v>0.10159651669085631</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B11" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>0.11029411764705882</v>
+        <v>0.11030478955007257</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B12" s="12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="19">
         <f t="shared" si="0"/>
-        <v>0.10441176470588236</v>
+        <v>0.10595065312046444</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B13" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="19">
         <f t="shared" si="0"/>
-        <v>0.11176470588235295</v>
+        <v>0.11175616835994194</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B14" s="12">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>0.40588235294117647</v>
+        <v>0.40638606676342526</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -4689,7 +4741,7 @@
         <v>258</v>
       </c>
       <c r="B16" s="12">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C16" s="19">
         <f t="shared" si="0"/>
@@ -4698,14 +4750,14 @@
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -4730,7 +4782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4748,56 +4800,56 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B3" s="12">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C3" s="19">
         <f>B3/B$6</f>
-        <v>0.41911764705882354</v>
+        <v>0.41799709724238027</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B4" s="12">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.57647058823529407</v>
+        <v>0.57764876632801165</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>4.4117647058823529E-3</v>
+        <v>4.3541364296081275E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,7 +4857,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="12">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
@@ -4814,14 +4866,14 @@
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4846,13 +4898,13 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4864,92 +4916,92 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B3" s="12">
         <v>14</v>
       </c>
       <c r="C3" s="19">
         <f>B3/B$9</f>
-        <v>2.0588235294117647E-2</v>
+        <v>2.0319303338171262E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B4" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12794117647058822</v>
+        <v>0.12917271407837447</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B5" s="12">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>0.28676470588235292</v>
+        <v>0.28592162554426703</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>1.4705882352941176E-3</v>
+        <v>1.4513788098693759E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B7" s="12">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.43823529411764706</v>
+        <v>0.43686502177068215</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B8" s="12">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1262699564586357</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +5009,7 @@
         <v>258</v>
       </c>
       <c r="B9" s="12">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
@@ -4966,14 +5018,14 @@
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4993,23 +5045,23 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -6463,7 +6515,7 @@
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -6818,30 +6870,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+    <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>44019</v>
+      </c>
+      <c r="B108" s="4">
+        <v>210585</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2715</v>
+      </c>
+      <c r="D108" s="4">
+        <v>10028</v>
+      </c>
+      <c r="E108" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-    </row>
-    <row r="110" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
     </row>
+    <row r="111" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A109:E109"/>
     <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6855,7 +6924,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6880,10 +6949,10 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>103781.8</v>
+        <v>108485</v>
       </c>
       <c r="B3" s="8">
-        <v>94120</v>
+        <v>99385</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
@@ -6904,12 +6973,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6933,61 +7002,35 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43925</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="8">
-        <v>63751</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.1056</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>267</v>
@@ -6996,10 +7039,10 @@
         <v>267</v>
       </c>
       <c r="D4" s="8">
-        <v>70938</v>
+        <v>63751</v>
       </c>
       <c r="E4" s="17">
-        <v>9.3299999999999994E-2</v>
+        <v>0.1056</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>267</v>
@@ -7013,7 +7056,7 @@
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>267</v>
@@ -7022,10 +7065,10 @@
         <v>267</v>
       </c>
       <c r="D5" s="8">
-        <v>85357</v>
+        <v>70938</v>
       </c>
       <c r="E5" s="17">
-        <v>8.8909998585200004E-2</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>267</v>
@@ -7039,7 +7082,7 @@
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>267</v>
@@ -7048,10 +7091,10 @@
         <v>267</v>
       </c>
       <c r="D6" s="8">
-        <v>88649</v>
+        <v>85357</v>
       </c>
       <c r="E6" s="17">
-        <v>0.1094</v>
+        <v>8.8909998585200004E-2</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>267</v>
@@ -7065,7 +7108,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>267</v>
@@ -7074,10 +7117,10 @@
         <v>267</v>
       </c>
       <c r="D7" s="8">
-        <v>96258</v>
+        <v>88649</v>
       </c>
       <c r="E7" s="17">
-        <v>0.11070000000000001</v>
+        <v>0.1094</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>267</v>
@@ -7091,7 +7134,7 @@
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>267</v>
@@ -7100,10 +7143,10 @@
         <v>267</v>
       </c>
       <c r="D8" s="8">
-        <v>106134</v>
+        <v>96258</v>
       </c>
       <c r="E8" s="17">
-        <v>0.100351636462</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>267</v>
@@ -7117,7 +7160,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>267</v>
@@ -7126,10 +7169,10 @@
         <v>267</v>
       </c>
       <c r="D9" s="8">
-        <v>115918</v>
+        <v>106134</v>
       </c>
       <c r="E9" s="17">
-        <v>0.1055125178708</v>
+        <v>0.100351636462</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>267</v>
@@ -7143,7 +7186,7 @@
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>267</v>
@@ -7152,10 +7195,10 @@
         <v>267</v>
       </c>
       <c r="D10" s="8">
-        <v>120533</v>
+        <v>115918</v>
       </c>
       <c r="E10" s="17">
-        <v>0.11360000000000001</v>
+        <v>0.1055125178708</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>267</v>
@@ -7169,7 +7212,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>267</v>
@@ -7178,10 +7221,10 @@
         <v>267</v>
       </c>
       <c r="D11" s="8">
-        <v>124553</v>
+        <v>120533</v>
       </c>
       <c r="E11" s="17">
-        <v>0.12479999999999999</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>267</v>
@@ -7195,7 +7238,7 @@
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>267</v>
@@ -7204,10 +7247,10 @@
         <v>267</v>
       </c>
       <c r="D12" s="8">
-        <v>133226</v>
+        <v>124553</v>
       </c>
       <c r="E12" s="17">
-        <v>0.1386</v>
+        <v>0.12479999999999999</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>267</v>
@@ -7221,7 +7264,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>267</v>
@@ -7230,10 +7273,10 @@
         <v>267</v>
       </c>
       <c r="D13" s="8">
-        <v>146467</v>
+        <v>133226</v>
       </c>
       <c r="E13" s="17">
-        <v>0.1101</v>
+        <v>0.1386</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>267</v>
@@ -7247,7 +7290,7 @@
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>267</v>
@@ -7256,10 +7299,10 @@
         <v>267</v>
       </c>
       <c r="D14" s="8">
-        <v>151810</v>
+        <v>146467</v>
       </c>
       <c r="E14" s="17">
-        <v>0.1105</v>
+        <v>0.1101</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>267</v>
@@ -7273,7 +7316,7 @@
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>267</v>
@@ -7282,10 +7325,10 @@
         <v>267</v>
       </c>
       <c r="D15" s="8">
-        <v>158547</v>
+        <v>151810</v>
       </c>
       <c r="E15" s="17">
-        <v>0.1188</v>
+        <v>0.1105</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>267</v>
@@ -7299,7 +7342,7 @@
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>267</v>
@@ -7308,10 +7351,10 @@
         <v>267</v>
       </c>
       <c r="D16" s="8">
-        <v>169536</v>
+        <v>158547</v>
       </c>
       <c r="E16" s="17">
-        <v>0.10630000000000001</v>
+        <v>0.1188</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>267</v>
@@ -7325,7 +7368,7 @@
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>267</v>
@@ -7334,10 +7377,10 @@
         <v>267</v>
       </c>
       <c r="D17" s="8">
-        <v>176239</v>
+        <v>169536</v>
       </c>
       <c r="E17" s="17">
-        <v>0.1023</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>267</v>
@@ -7351,7 +7394,7 @@
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>267</v>
@@ -7360,10 +7403,10 @@
         <v>267</v>
       </c>
       <c r="D18" s="8">
-        <v>182710</v>
+        <v>176239</v>
       </c>
       <c r="E18" s="17">
-        <v>9.35E-2</v>
+        <v>0.1023</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>267</v>
@@ -7377,7 +7420,7 @@
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>267</v>
@@ -7386,10 +7429,10 @@
         <v>267</v>
       </c>
       <c r="D19" s="8">
-        <v>190394</v>
+        <v>182710</v>
       </c>
       <c r="E19" s="17">
-        <v>9.7117268401900006E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>267</v>
@@ -7403,7 +7446,7 @@
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>267</v>
@@ -7412,10 +7455,10 @@
         <v>267</v>
       </c>
       <c r="D20" s="8">
-        <v>205399</v>
+        <v>190394</v>
       </c>
       <c r="E20" s="17">
-        <v>9.4500000000000001E-2</v>
+        <v>9.7117268401900006E-2</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>267</v>
@@ -7429,7 +7472,7 @@
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>267</v>
@@ -7438,10 +7481,10 @@
         <v>267</v>
       </c>
       <c r="D21" s="8">
-        <v>216783</v>
+        <v>205399</v>
       </c>
       <c r="E21" s="17">
-        <v>8.5800000000000001E-2</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>267</v>
@@ -7455,7 +7498,7 @@
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>267</v>
@@ -7464,10 +7507,10 @@
         <v>267</v>
       </c>
       <c r="D22" s="8">
-        <v>225078</v>
+        <v>216783</v>
       </c>
       <c r="E22" s="17">
-        <v>8.2500000000000004E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>267</v>
@@ -7481,7 +7524,7 @@
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>267</v>
@@ -7490,10 +7533,10 @@
         <v>267</v>
       </c>
       <c r="D23" s="8">
-        <v>242547</v>
+        <v>225078</v>
       </c>
       <c r="E23" s="17">
-        <v>7.4399999999999994E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>267</v>
@@ -7507,7 +7550,7 @@
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>267</v>
@@ -7516,10 +7559,10 @@
         <v>267</v>
       </c>
       <c r="D24" s="8">
-        <v>262816</v>
+        <v>242547</v>
       </c>
       <c r="E24" s="17">
-        <v>6.3700000000000007E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>267</v>
@@ -7533,7 +7576,7 @@
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>267</v>
@@ -7542,10 +7585,10 @@
         <v>267</v>
       </c>
       <c r="D25" s="8">
-        <v>276021</v>
+        <v>262816</v>
       </c>
       <c r="E25" s="17">
-        <v>6.1199999999999997E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>267</v>
@@ -7559,7 +7602,7 @@
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>267</v>
@@ -7568,10 +7611,10 @@
         <v>267</v>
       </c>
       <c r="D26" s="8">
-        <v>290517</v>
+        <v>276021</v>
       </c>
       <c r="E26" s="17">
-        <v>5.8299999999999998E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>267</v>
@@ -7585,7 +7628,7 @@
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>267</v>
@@ -7594,10 +7637,10 @@
         <v>267</v>
       </c>
       <c r="D27" s="8">
-        <v>300384</v>
+        <v>290517</v>
       </c>
       <c r="E27" s="17">
-        <v>6.2899999999999998E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>267</v>
@@ -7611,7 +7654,7 @@
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>267</v>
@@ -7620,10 +7663,10 @@
         <v>267</v>
       </c>
       <c r="D28" s="8">
-        <v>314790</v>
+        <v>300384</v>
       </c>
       <c r="E28" s="17">
-        <v>6.10670666381E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>267</v>
@@ -7637,7 +7680,7 @@
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>267</v>
@@ -7646,10 +7689,10 @@
         <v>267</v>
       </c>
       <c r="D29" s="8">
-        <v>330300</v>
+        <v>314790</v>
       </c>
       <c r="E29" s="17">
-        <v>5.8381327098900003E-2</v>
+        <v>6.10670666381E-2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>267</v>
@@ -7663,7 +7706,7 @@
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>267</v>
@@ -7672,10 +7715,10 @@
         <v>267</v>
       </c>
       <c r="D30" s="8">
-        <v>351775</v>
+        <v>330300</v>
       </c>
       <c r="E30" s="17">
-        <v>5.8799999999999998E-2</v>
+        <v>5.8381327098900003E-2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>267</v>
@@ -7689,7 +7732,7 @@
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>267</v>
@@ -7698,10 +7741,10 @@
         <v>267</v>
       </c>
       <c r="D31" s="8">
-        <v>380648</v>
+        <v>351775</v>
       </c>
       <c r="E31" s="17">
-        <v>5.7299999999999997E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>267</v>
@@ -7715,7 +7758,7 @@
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>267</v>
@@ -7724,10 +7767,10 @@
         <v>267</v>
       </c>
       <c r="D32" s="8">
-        <v>390560</v>
+        <v>380648</v>
       </c>
       <c r="E32" s="17">
-        <v>6.0400000000000002E-2</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>267</v>
@@ -7741,7 +7784,7 @@
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>267</v>
@@ -7750,10 +7793,10 @@
         <v>267</v>
       </c>
       <c r="D33" s="8">
-        <v>407398</v>
+        <v>390560</v>
       </c>
       <c r="E33" s="17">
-        <v>6.0199999999999997E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>267</v>
@@ -7767,7 +7810,7 @@
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>267</v>
@@ -7776,10 +7819,10 @@
         <v>267</v>
       </c>
       <c r="D34" s="8">
-        <v>427210</v>
+        <v>407398</v>
       </c>
       <c r="E34" s="17">
-        <v>5.6754924069199998E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>267</v>
@@ -7793,7 +7836,7 @@
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>267</v>
@@ -7802,10 +7845,10 @@
         <v>267</v>
       </c>
       <c r="D35" s="8">
-        <v>438938</v>
+        <v>427210</v>
       </c>
       <c r="E35" s="17">
-        <v>5.9299999999999999E-2</v>
+        <v>5.6754924069199998E-2</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>267</v>
@@ -7819,7 +7862,7 @@
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>267</v>
@@ -7828,10 +7871,10 @@
         <v>267</v>
       </c>
       <c r="D36" s="8">
-        <v>455162</v>
+        <v>438938</v>
       </c>
       <c r="E36" s="17">
-        <v>5.8500000000000003E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>267</v>
@@ -7845,7 +7888,7 @@
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>267</v>
@@ -7854,10 +7897,10 @@
         <v>267</v>
       </c>
       <c r="D37" s="8">
-        <v>477118</v>
+        <v>455162</v>
       </c>
       <c r="E37" s="17">
-        <v>5.8900000000000001E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>267</v>
@@ -7871,19 +7914,19 @@
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43960</v>
-      </c>
-      <c r="B38" s="8">
-        <v>472782</v>
-      </c>
-      <c r="C38" s="8">
-        <v>16512</v>
+        <v>43959</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D38" s="8">
-        <v>489294</v>
+        <v>477118</v>
       </c>
       <c r="E38" s="17">
-        <v>6.7500000000000004E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>267</v>
@@ -7897,19 +7940,19 @@
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B39" s="8">
-        <v>496328</v>
+        <v>472782</v>
       </c>
       <c r="C39" s="8">
-        <v>17650</v>
+        <v>16512</v>
       </c>
       <c r="D39" s="8">
-        <v>513978</v>
+        <v>489294</v>
       </c>
       <c r="E39" s="17">
-        <v>5.9299999999999999E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>267</v>
@@ -7923,19 +7966,19 @@
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B40" s="8">
-        <v>506771</v>
+        <v>496328</v>
       </c>
       <c r="C40" s="8">
-        <v>18926</v>
+        <v>17650</v>
       </c>
       <c r="D40" s="8">
-        <v>525697</v>
+        <v>513978</v>
       </c>
       <c r="E40" s="17">
-        <v>6.3711443038399998E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>267</v>
@@ -7949,19 +7992,19 @@
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B41" s="8">
-        <v>511385</v>
+        <v>506771</v>
       </c>
       <c r="C41" s="8">
-        <v>26787</v>
+        <v>18926</v>
       </c>
       <c r="D41" s="8">
-        <v>538172</v>
+        <v>525697</v>
       </c>
       <c r="E41" s="17">
-        <v>6.9199999999999998E-2</v>
+        <v>6.3711443038399998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>267</v>
@@ -7975,19 +8018,19 @@
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B42" s="8">
-        <v>556776</v>
+        <v>511385</v>
       </c>
       <c r="C42" s="8">
-        <v>30655</v>
+        <v>26787</v>
       </c>
       <c r="D42" s="8">
-        <v>587431</v>
+        <v>538172</v>
       </c>
       <c r="E42" s="17">
-        <v>5.3699999999999998E-2</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>267</v>
@@ -8001,19 +8044,19 @@
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B43" s="8">
-        <v>587313</v>
+        <v>556776</v>
       </c>
       <c r="C43" s="8">
-        <v>35971</v>
+        <v>30655</v>
       </c>
       <c r="D43" s="8">
-        <v>623284</v>
+        <v>587431</v>
       </c>
       <c r="E43" s="17">
-        <v>5.0299999999999997E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>267</v>
@@ -8027,19 +8070,19 @@
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B44" s="8">
-        <v>609630</v>
+        <v>587313</v>
       </c>
       <c r="C44" s="8">
-        <v>36362</v>
+        <v>35971</v>
       </c>
       <c r="D44" s="8">
-        <v>645992</v>
+        <v>623284</v>
       </c>
       <c r="E44" s="17">
-        <v>5.0900000000000001E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>267</v>
@@ -8053,727 +8096,727 @@
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B45" s="8">
-        <v>638739</v>
+        <v>609630</v>
       </c>
       <c r="C45" s="8">
-        <v>39732</v>
+        <v>36362</v>
       </c>
       <c r="D45" s="8">
-        <v>678471</v>
+        <v>645992</v>
       </c>
       <c r="E45" s="17">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="F45" s="8">
-        <v>23708</v>
-      </c>
-      <c r="G45" s="8">
-        <v>3317</v>
-      </c>
-      <c r="H45" s="8">
-        <v>27025</v>
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B46" s="8">
-        <v>650355</v>
+        <v>638739</v>
       </c>
       <c r="C46" s="8">
-        <v>42921</v>
+        <v>39732</v>
       </c>
       <c r="D46" s="8">
-        <v>693276</v>
+        <v>678471</v>
       </c>
       <c r="E46" s="17">
-        <v>4.9700000000000001E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="F46" s="8">
-        <v>22004</v>
+        <v>23708</v>
       </c>
       <c r="G46" s="8">
-        <v>3610</v>
+        <v>3317</v>
       </c>
       <c r="H46" s="8">
-        <v>25614</v>
+        <v>27025</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B47" s="8">
-        <v>679845</v>
+        <v>650355</v>
       </c>
       <c r="C47" s="8">
-        <v>43168</v>
+        <v>42921</v>
       </c>
       <c r="D47" s="8">
-        <v>723013</v>
+        <v>693276</v>
       </c>
       <c r="E47" s="17">
-        <v>4.4720144337000001E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="F47" s="8">
-        <v>24725</v>
+        <v>22004</v>
       </c>
       <c r="G47" s="8">
-        <v>3463</v>
+        <v>3610</v>
       </c>
       <c r="H47" s="8">
-        <v>28188</v>
+        <v>25614</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B48" s="8">
-        <v>700146</v>
+        <v>679845</v>
       </c>
       <c r="C48" s="8">
-        <v>44791</v>
+        <v>43168</v>
       </c>
       <c r="D48" s="8">
-        <v>744937</v>
+        <v>723013</v>
       </c>
       <c r="E48" s="17">
-        <v>4.7E-2</v>
+        <v>4.4720144337000001E-2</v>
       </c>
       <c r="F48" s="8">
-        <v>26966</v>
+        <v>24725</v>
       </c>
       <c r="G48" s="8">
-        <v>2572</v>
+        <v>3463</v>
       </c>
       <c r="H48" s="8">
-        <v>29538</v>
+        <v>28188</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B49" s="8">
-        <v>720928</v>
+        <v>700146</v>
       </c>
       <c r="C49" s="8">
-        <v>49313</v>
+        <v>44791</v>
       </c>
       <c r="D49" s="8">
-        <v>770241</v>
+        <v>744937</v>
       </c>
       <c r="E49" s="17">
-        <v>5.4300000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F49" s="8">
-        <v>23450</v>
+        <v>26966</v>
       </c>
       <c r="G49" s="8">
-        <v>2665</v>
+        <v>2572</v>
       </c>
       <c r="H49" s="8">
-        <v>26116</v>
+        <v>29538</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B50" s="8">
-        <v>740181</v>
+        <v>720928</v>
       </c>
       <c r="C50" s="8">
-        <v>60252</v>
+        <v>49313</v>
       </c>
       <c r="D50" s="8">
-        <v>800433</v>
+        <v>770241</v>
       </c>
       <c r="E50" s="17">
-        <v>5.5100000000000003E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="F50" s="8">
-        <v>21838</v>
+        <v>23450</v>
       </c>
       <c r="G50" s="8">
-        <v>3469</v>
+        <v>2665</v>
       </c>
       <c r="H50" s="8">
-        <v>25307</v>
+        <v>26116</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B51" s="8">
-        <v>762706</v>
+        <v>740181</v>
       </c>
       <c r="C51" s="8">
-        <v>71731</v>
+        <v>60252</v>
       </c>
       <c r="D51" s="8">
-        <v>834437</v>
+        <v>800433</v>
       </c>
       <c r="E51" s="17">
-        <v>5.3900000000000003E-2</v>
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="F51" s="8">
-        <v>21868</v>
+        <v>21838</v>
       </c>
       <c r="G51" s="8">
-        <v>5053</v>
+        <v>3469</v>
       </c>
       <c r="H51" s="8">
-        <v>26921</v>
+        <v>25307</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43974</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>267</v>
+        <v>43973</v>
+      </c>
+      <c r="B52" s="8">
+        <v>762706</v>
+      </c>
+      <c r="C52" s="8">
+        <v>71731</v>
       </c>
       <c r="D52" s="8">
-        <v>870935</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>267</v>
+        <v>834437</v>
+      </c>
+      <c r="E52" s="17">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F52" s="8">
+        <v>21868</v>
+      </c>
+      <c r="G52" s="8">
+        <v>5053</v>
       </c>
       <c r="H52" s="8">
-        <v>27495</v>
+        <v>26921</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43975</v>
-      </c>
-      <c r="B53" s="8">
-        <v>805654</v>
-      </c>
-      <c r="C53" s="8">
-        <v>80700</v>
+        <v>43974</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D53" s="8">
-        <v>886354</v>
-      </c>
-      <c r="E53" s="17">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F53" s="8">
-        <v>22186</v>
-      </c>
-      <c r="G53" s="8">
-        <v>5397</v>
+        <v>870935</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="H53" s="8">
-        <v>27583</v>
+        <v>27495</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B54" s="8">
-        <v>821233</v>
+        <v>805654</v>
       </c>
       <c r="C54" s="8">
-        <v>84841</v>
+        <v>80700</v>
       </c>
       <c r="D54" s="8">
-        <v>906074</v>
+        <v>886354</v>
       </c>
       <c r="E54" s="17">
-        <v>5.1499999999999997E-2</v>
+        <v>4.87E-2</v>
       </c>
       <c r="F54" s="8">
-        <v>20198</v>
+        <v>22186</v>
       </c>
       <c r="G54" s="8">
-        <v>5953</v>
+        <v>5397</v>
       </c>
       <c r="H54" s="8">
-        <v>26152</v>
+        <v>27583</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B55" s="8">
-        <v>855674</v>
+        <v>821233</v>
       </c>
       <c r="C55" s="8">
-        <v>87565</v>
+        <v>84841</v>
       </c>
       <c r="D55" s="8">
-        <v>943239</v>
+        <v>906074</v>
       </c>
       <c r="E55" s="17">
-        <v>4.2700000000000002E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="F55" s="8">
-        <v>22218</v>
+        <v>20198</v>
       </c>
       <c r="G55" s="8">
-        <v>6111</v>
+        <v>5953</v>
       </c>
       <c r="H55" s="8">
-        <v>28329</v>
+        <v>26152</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B56" s="8">
-        <v>873218</v>
+        <v>855674</v>
       </c>
       <c r="C56" s="8">
-        <v>88643</v>
+        <v>87565</v>
       </c>
       <c r="D56" s="8">
-        <v>961861</v>
+        <v>943239</v>
       </c>
       <c r="E56" s="17">
-        <v>4.3299999999999998E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="F56" s="8">
-        <v>21756</v>
+        <v>22218</v>
       </c>
       <c r="G56" s="8">
-        <v>5619</v>
+        <v>6111</v>
       </c>
       <c r="H56" s="8">
-        <v>27374</v>
+        <v>28329</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B57" s="8">
-        <v>893275</v>
+        <v>873218</v>
       </c>
       <c r="C57" s="8">
-        <v>96719</v>
+        <v>88643</v>
       </c>
       <c r="D57" s="8">
-        <v>989994</v>
+        <v>961861</v>
       </c>
       <c r="E57" s="17">
-        <v>4.9000000000000002E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="F57" s="8">
-        <v>21871</v>
+        <v>21756</v>
       </c>
       <c r="G57" s="8">
-        <v>5210</v>
+        <v>5619</v>
       </c>
       <c r="H57" s="8">
-        <v>27080</v>
+        <v>27374</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B58" s="8">
-        <v>928517</v>
+        <v>893275</v>
       </c>
       <c r="C58" s="8">
-        <v>98932</v>
+        <v>96719</v>
       </c>
       <c r="D58" s="8">
-        <v>1027449</v>
+        <v>989994</v>
       </c>
       <c r="E58" s="17">
-        <v>4.5600000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F58" s="8">
-        <v>23687</v>
+        <v>21871</v>
       </c>
       <c r="G58" s="8">
-        <v>3886</v>
+        <v>5210</v>
       </c>
       <c r="H58" s="8">
-        <v>27573</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B59" s="8">
-        <v>951865</v>
+        <v>928517</v>
       </c>
       <c r="C59" s="8">
-        <v>102928</v>
+        <v>98932</v>
       </c>
       <c r="D59" s="8">
-        <v>1054793</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>267</v>
+        <v>1027449</v>
+      </c>
+      <c r="E59" s="17">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F59" s="8">
+        <v>23687</v>
+      </c>
+      <c r="G59" s="8">
+        <v>3886</v>
       </c>
       <c r="H59" s="8">
-        <v>26265</v>
+        <v>27573</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B60" s="8">
-        <v>970031</v>
+        <v>951865</v>
       </c>
       <c r="C60" s="8">
-        <v>103460</v>
+        <v>102928</v>
       </c>
       <c r="D60" s="8">
-        <v>1073491</v>
-      </c>
-      <c r="E60" s="17">
-        <v>5.43810873784E-2</v>
-      </c>
-      <c r="F60" s="8">
-        <v>23482</v>
-      </c>
-      <c r="G60" s="8">
-        <v>3251</v>
+        <v>1054793</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="H60" s="8">
-        <v>26734</v>
+        <v>26265</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B61" s="8">
-        <v>986224</v>
+        <v>970031</v>
       </c>
       <c r="C61" s="8">
-        <v>107452</v>
+        <v>103460</v>
       </c>
       <c r="D61" s="8">
-        <v>1093676</v>
+        <v>1073491</v>
       </c>
       <c r="E61" s="17">
-        <v>5.3999999999999999E-2</v>
+        <v>5.43810873784E-2</v>
       </c>
       <c r="F61" s="8">
-        <v>23570</v>
+        <v>23482</v>
       </c>
       <c r="G61" s="8">
-        <v>3230</v>
+        <v>3251</v>
       </c>
       <c r="H61" s="8">
-        <v>26800</v>
+        <v>26734</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B62" s="8">
-        <v>1006768</v>
+        <v>986224</v>
       </c>
       <c r="C62" s="8">
-        <v>110506</v>
+        <v>107452</v>
       </c>
       <c r="D62" s="8">
-        <v>1117274</v>
+        <v>1093676</v>
       </c>
       <c r="E62" s="17">
-        <v>6.6199999999999995E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F62" s="8">
-        <v>21585</v>
+        <v>23570</v>
       </c>
       <c r="G62" s="8">
-        <v>3277</v>
+        <v>3230</v>
       </c>
       <c r="H62" s="8">
-        <v>24862</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B63" s="8">
-        <v>1038555</v>
+        <v>1006768</v>
       </c>
       <c r="C63" s="8">
-        <v>112313</v>
+        <v>110506</v>
       </c>
       <c r="D63" s="8">
-        <v>1150868</v>
+        <v>1117274</v>
       </c>
       <c r="E63" s="17">
-        <v>6.2600000000000003E-2</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="F63" s="8">
-        <v>23620</v>
+        <v>21585</v>
       </c>
       <c r="G63" s="8">
-        <v>3381</v>
+        <v>3277</v>
       </c>
       <c r="H63" s="8">
-        <v>27001</v>
+        <v>24862</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B64" s="8">
-        <v>1061576</v>
+        <v>1038555</v>
       </c>
       <c r="C64" s="8">
-        <v>113372</v>
+        <v>112313</v>
       </c>
       <c r="D64" s="8">
-        <v>1174948</v>
+        <v>1150868</v>
       </c>
       <c r="E64" s="17">
-        <v>6.0299999999999999E-2</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="F64" s="8">
-        <v>24043</v>
+        <v>23620</v>
       </c>
       <c r="G64" s="8">
-        <v>2379</v>
+        <v>3381</v>
       </c>
       <c r="H64" s="8">
-        <v>26422</v>
+        <v>27001</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B65" s="8">
-        <v>1093277</v>
+        <v>1061576</v>
       </c>
       <c r="C65" s="8">
-        <v>115910</v>
+        <v>113372</v>
       </c>
       <c r="D65" s="8">
-        <v>1209187</v>
+        <v>1174948</v>
       </c>
       <c r="E65" s="17">
-        <v>6.4399999999999999E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="F65" s="8">
-        <v>23537</v>
+        <v>24043</v>
       </c>
       <c r="G65" s="8">
-        <v>2425</v>
+        <v>2379</v>
       </c>
       <c r="H65" s="8">
-        <v>25963</v>
+        <v>26422</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B66" s="8">
-        <v>1092012</v>
+        <v>1093277</v>
       </c>
       <c r="C66" s="8">
-        <v>126943</v>
+        <v>115910</v>
       </c>
       <c r="D66" s="8">
-        <v>1218955</v>
+        <v>1209187</v>
       </c>
       <c r="E66" s="17">
-        <v>0.08</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="F66" s="8">
-        <v>20021</v>
+        <v>23537</v>
       </c>
       <c r="G66" s="8">
-        <v>3431</v>
+        <v>2425</v>
       </c>
       <c r="H66" s="8">
-        <v>23452</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B67" s="8">
-        <v>1120316</v>
+        <v>1092012</v>
       </c>
       <c r="C67" s="8">
-        <v>135583</v>
+        <v>126943</v>
       </c>
       <c r="D67" s="8">
-        <v>1255899</v>
+        <v>1218955</v>
       </c>
       <c r="E67" s="17">
-        <v>7.11381708088E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F67" s="8">
-        <v>21469</v>
+        <v>20021</v>
       </c>
       <c r="G67" s="8">
-        <v>4589</v>
+        <v>3431</v>
       </c>
       <c r="H67" s="8">
-        <v>26058</v>
+        <v>23452</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B68" s="8">
-        <v>1147355</v>
+        <v>1120316</v>
       </c>
       <c r="C68" s="8">
-        <v>138784</v>
+        <v>135583</v>
       </c>
       <c r="D68" s="8">
-        <v>1286139</v>
+        <v>1255899</v>
       </c>
       <c r="E68" s="17">
-        <v>6.6600000000000006E-2</v>
+        <v>7.11381708088E-2</v>
       </c>
       <c r="F68" s="8">
-        <v>23019</v>
+        <v>21469</v>
       </c>
       <c r="G68" s="8">
-        <v>4476</v>
+        <v>4589</v>
       </c>
       <c r="H68" s="8">
-        <v>27495</v>
+        <v>26058</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B69" s="8">
-        <v>1161087</v>
+        <v>1147355</v>
       </c>
       <c r="C69" s="8">
-        <v>140962</v>
+        <v>138784</v>
       </c>
       <c r="D69" s="8">
-        <v>1302049</v>
+        <v>1286139</v>
       </c>
       <c r="E69" s="17">
-        <v>6.9199999999999998E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="F69" s="8">
-        <v>22046</v>
+        <v>23019</v>
       </c>
       <c r="G69" s="8">
-        <v>4351</v>
+        <v>4476</v>
       </c>
       <c r="H69" s="8">
-        <v>26396</v>
+        <v>27495</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B70" s="8">
-        <v>1206320</v>
+        <v>1161087</v>
       </c>
       <c r="C70" s="8">
-        <v>142573</v>
+        <v>140962</v>
       </c>
       <c r="D70" s="8">
-        <v>1348893</v>
+        <v>1302049</v>
       </c>
       <c r="E70" s="17">
-        <v>6.8500000000000005E-2</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="F70" s="8">
-        <v>23966</v>
+        <v>22046</v>
       </c>
       <c r="G70" s="8">
-        <v>4323</v>
+        <v>4351</v>
       </c>
       <c r="H70" s="8">
-        <v>28289</v>
+        <v>26396</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B71" s="8">
-        <v>1226957</v>
+        <v>1206320</v>
       </c>
       <c r="C71" s="8">
-        <v>143174</v>
+        <v>142573</v>
       </c>
       <c r="D71" s="8">
-        <v>1370131</v>
+        <v>1348893</v>
       </c>
       <c r="E71" s="17">
-        <v>7.0499999999999993E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="F71" s="8">
-        <v>23626</v>
+        <v>23966</v>
       </c>
       <c r="G71" s="8">
-        <v>4257</v>
+        <v>4323</v>
       </c>
       <c r="H71" s="8">
-        <v>27883</v>
+        <v>28289</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B72" s="8">
-        <v>1260319</v>
+        <v>1226957</v>
       </c>
       <c r="C72" s="8">
-        <v>144050</v>
+        <v>143174</v>
       </c>
       <c r="D72" s="8">
-        <v>1404369</v>
+        <v>1370131</v>
       </c>
       <c r="E72" s="17">
-        <v>7.22E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="F72" s="8">
-        <v>23863</v>
+        <v>23626</v>
       </c>
       <c r="G72" s="8">
-        <v>4020</v>
+        <v>4257</v>
       </c>
       <c r="H72" s="8">
         <v>27883</v>
@@ -8781,657 +8824,709 @@
     </row>
     <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B73" s="8">
-        <v>1295983</v>
+        <v>1260319</v>
       </c>
       <c r="C73" s="8">
-        <v>146967</v>
+        <v>144050</v>
       </c>
       <c r="D73" s="8">
-        <v>1442950</v>
+        <v>1404369</v>
       </c>
       <c r="E73" s="17">
-        <v>6.1100000000000002E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="F73" s="8">
-        <v>29139</v>
+        <v>23863</v>
       </c>
       <c r="G73" s="8">
-        <v>2861</v>
+        <v>4020</v>
       </c>
       <c r="H73" s="8">
-        <v>31999</v>
+        <v>27883</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B74" s="8">
-        <v>1314761</v>
+        <v>1295983</v>
       </c>
       <c r="C74" s="8">
-        <v>149090</v>
+        <v>146967</v>
       </c>
       <c r="D74" s="8">
-        <v>1463851</v>
+        <v>1442950</v>
       </c>
       <c r="E74" s="17">
-        <v>6.6219239373599997E-2</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="F74" s="8">
-        <v>27778</v>
+        <v>29139</v>
       </c>
       <c r="G74" s="8">
-        <v>1930</v>
+        <v>2861</v>
       </c>
       <c r="H74" s="8">
-        <v>29707</v>
+        <v>31999</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B75" s="8">
-        <v>1348442</v>
+        <v>1314761</v>
       </c>
       <c r="C75" s="8">
-        <v>150573</v>
+        <v>149090</v>
       </c>
       <c r="D75" s="8">
-        <v>1499015</v>
+        <v>1463851</v>
       </c>
       <c r="E75" s="17">
-        <v>6.7100000000000007E-2</v>
+        <v>6.6219239373599997E-2</v>
       </c>
       <c r="F75" s="8">
-        <v>28727</v>
+        <v>27778</v>
       </c>
       <c r="G75" s="8">
-        <v>1684</v>
+        <v>1930</v>
       </c>
       <c r="H75" s="8">
-        <v>30411</v>
+        <v>29707</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B76" s="8">
-        <v>1369638</v>
+        <v>1348442</v>
       </c>
       <c r="C76" s="8">
-        <v>152796</v>
+        <v>150573</v>
       </c>
       <c r="D76" s="8">
-        <v>1522434</v>
+        <v>1499015</v>
       </c>
       <c r="E76" s="17">
-        <v>6.9400000000000003E-2</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="F76" s="8">
-        <v>29793</v>
+        <v>28727</v>
       </c>
       <c r="G76" s="8">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="H76" s="8">
-        <v>31484</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B77" s="8">
-        <v>1407741</v>
+        <v>1369638</v>
       </c>
       <c r="C77" s="8">
         <v>152796</v>
       </c>
       <c r="D77" s="8">
-        <v>1560537</v>
+        <v>1522434</v>
       </c>
       <c r="E77" s="17">
-        <v>7.4999999999999997E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="F77" s="8">
-        <v>28774</v>
+        <v>29793</v>
       </c>
       <c r="G77" s="8">
-        <v>1460</v>
+        <v>1691</v>
       </c>
       <c r="H77" s="8">
-        <v>30235</v>
+        <v>31484</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B78" s="8">
-        <v>1423914</v>
+        <v>1407741</v>
       </c>
       <c r="C78" s="8">
-        <v>153011</v>
+        <v>152796</v>
       </c>
       <c r="D78" s="8">
-        <v>1576925</v>
+        <v>1560537</v>
       </c>
       <c r="E78" s="17">
-        <v>8.5257188117199997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F78" s="8">
-        <v>28137</v>
+        <v>28774</v>
       </c>
       <c r="G78" s="8">
-        <v>1405</v>
+        <v>1460</v>
       </c>
       <c r="H78" s="8">
-        <v>29542</v>
+        <v>30235</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B79" s="8">
-        <v>1463398</v>
+        <v>1423914</v>
       </c>
       <c r="C79" s="8">
-        <v>159453</v>
+        <v>153011</v>
       </c>
       <c r="D79" s="8">
-        <v>1622851</v>
+        <v>1576925</v>
       </c>
       <c r="E79" s="17">
-        <v>8.9399999999999993E-2</v>
+        <v>8.5257188117199997E-2</v>
       </c>
       <c r="F79" s="8">
-        <v>29011</v>
+        <v>28137</v>
       </c>
       <c r="G79" s="8">
-        <v>2200</v>
+        <v>1405</v>
       </c>
       <c r="H79" s="8">
-        <v>31212</v>
+        <v>29542</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B80" s="8">
-        <v>1526180</v>
+        <v>1463398</v>
       </c>
       <c r="C80" s="8">
-        <v>163944</v>
+        <v>159453</v>
       </c>
       <c r="D80" s="8">
-        <v>1690124</v>
+        <v>1622851</v>
       </c>
       <c r="E80" s="17">
-        <v>8.7999999999999995E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="F80" s="8">
-        <v>32885</v>
+        <v>29011</v>
       </c>
       <c r="G80" s="8">
-        <v>2425</v>
+        <v>2200</v>
       </c>
       <c r="H80" s="8">
-        <v>35311</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B81" s="8">
-        <v>1549009</v>
+        <v>1526180</v>
       </c>
       <c r="C81" s="8">
-        <v>166168</v>
+        <v>163944</v>
       </c>
       <c r="D81" s="8">
-        <v>1715177</v>
+        <v>1690124</v>
       </c>
       <c r="E81" s="17">
-        <v>9.5100000000000004E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F81" s="8">
-        <v>33464</v>
+        <v>32885</v>
       </c>
       <c r="G81" s="8">
-        <v>2440</v>
+        <v>2425</v>
       </c>
       <c r="H81" s="8">
-        <v>35904</v>
+        <v>35311</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B82" s="8">
-        <v>1597290</v>
+        <v>1549009</v>
       </c>
       <c r="C82" s="8">
-        <v>170411</v>
+        <v>166168</v>
       </c>
       <c r="D82" s="8">
-        <v>1767701</v>
+        <v>1715177</v>
       </c>
       <c r="E82" s="17">
-        <v>9.64E-2</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="F82" s="8">
-        <v>35550</v>
+        <v>33464</v>
       </c>
       <c r="G82" s="8">
-        <v>2834</v>
+        <v>2440</v>
       </c>
       <c r="H82" s="8">
-        <v>38384</v>
+        <v>35904</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B83" s="8">
-        <v>1630258</v>
+        <v>1597290</v>
       </c>
       <c r="C83" s="8">
-        <v>175384</v>
+        <v>170411</v>
       </c>
       <c r="D83" s="8">
-        <v>1805642</v>
+        <v>1767701</v>
       </c>
       <c r="E83" s="17">
-        <v>0.1042</v>
+        <v>9.64E-2</v>
       </c>
       <c r="F83" s="8">
-        <v>37231</v>
+        <v>35550</v>
       </c>
       <c r="G83" s="8">
-        <v>3227</v>
+        <v>2834</v>
       </c>
       <c r="H83" s="8">
-        <v>40458</v>
+        <v>38384</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B84" s="8">
-        <v>1659340</v>
+        <v>1630258</v>
       </c>
       <c r="C84" s="8">
-        <v>176697</v>
+        <v>175384</v>
       </c>
       <c r="D84" s="8">
-        <v>1836037</v>
+        <v>1805642</v>
       </c>
       <c r="E84" s="17">
-        <v>0.1176</v>
+        <v>0.1042</v>
       </c>
       <c r="F84" s="8">
-        <v>35943</v>
+        <v>37231</v>
       </c>
       <c r="G84" s="8">
-        <v>3414</v>
+        <v>3227</v>
       </c>
       <c r="H84" s="8">
-        <v>39357</v>
+        <v>40458</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B85" s="8">
-        <v>1697334</v>
+        <v>1659340</v>
       </c>
       <c r="C85" s="8">
-        <v>177863</v>
+        <v>176697</v>
       </c>
       <c r="D85" s="8">
-        <v>1875197</v>
+        <v>1836037</v>
       </c>
       <c r="E85" s="17">
-        <v>0.1173</v>
+        <v>0.1176</v>
       </c>
       <c r="F85" s="8">
-        <v>39060</v>
+        <v>35943</v>
       </c>
       <c r="G85" s="8">
-        <v>3550</v>
+        <v>3414</v>
       </c>
       <c r="H85" s="8">
-        <v>42610</v>
+        <v>39357</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B86" s="8">
-        <v>1722826</v>
+        <v>1697334</v>
       </c>
       <c r="C86" s="8">
-        <v>180835</v>
+        <v>177863</v>
       </c>
       <c r="D86" s="8">
-        <v>1903661</v>
+        <v>1875197</v>
       </c>
       <c r="E86" s="17">
-        <v>0.1323</v>
+        <v>0.1173</v>
       </c>
       <c r="F86" s="8">
-        <v>37061</v>
+        <v>39060</v>
       </c>
       <c r="G86" s="8">
-        <v>3055</v>
+        <v>3550</v>
       </c>
       <c r="H86" s="8">
-        <v>40116</v>
+        <v>42610</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B87" s="8">
-        <v>1775219</v>
+        <v>1722826</v>
       </c>
       <c r="C87" s="8">
-        <v>184398</v>
+        <v>180835</v>
       </c>
       <c r="D87" s="8">
-        <v>1959617</v>
+        <v>1903661</v>
       </c>
       <c r="E87" s="17">
-        <v>0.1431</v>
+        <v>0.1323</v>
       </c>
       <c r="F87" s="8">
-        <v>35577</v>
+        <v>37061</v>
       </c>
       <c r="G87" s="8">
-        <v>2922</v>
+        <v>3055</v>
       </c>
       <c r="H87" s="8">
-        <v>38499</v>
+        <v>40116</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B88" s="8">
-        <v>1819189</v>
+        <v>1775219</v>
       </c>
       <c r="C88" s="8">
-        <v>187535</v>
+        <v>184398</v>
       </c>
       <c r="D88" s="8">
-        <v>2006724</v>
+        <v>1959617</v>
       </c>
       <c r="E88" s="17">
-        <v>0.13739999999999999</v>
+        <v>0.1431</v>
       </c>
       <c r="F88" s="8">
-        <v>38597</v>
+        <v>35577</v>
       </c>
       <c r="G88" s="8">
-        <v>3052</v>
+        <v>2922</v>
       </c>
       <c r="H88" s="8">
-        <v>41650</v>
+        <v>38499</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B89" s="8">
-        <v>1869282</v>
+        <v>1819189</v>
       </c>
       <c r="C89" s="8">
-        <v>192657</v>
+        <v>187535</v>
       </c>
       <c r="D89" s="8">
-        <v>2061939</v>
+        <v>2006724</v>
       </c>
       <c r="E89" s="17">
-        <v>0.14019999999999999</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="F89" s="8">
-        <v>38856</v>
+        <v>38597</v>
       </c>
       <c r="G89" s="8">
-        <v>3178</v>
+        <v>3052</v>
       </c>
       <c r="H89" s="8">
-        <v>42034</v>
+        <v>41650</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B90" s="8">
-        <v>1921948</v>
+        <v>1869282</v>
       </c>
       <c r="C90" s="8">
-        <v>197088</v>
+        <v>192657</v>
       </c>
       <c r="D90" s="8">
-        <v>2119036</v>
+        <v>2061939</v>
       </c>
       <c r="E90" s="17">
-        <v>0.1358</v>
+        <v>0.14019999999999999</v>
       </c>
       <c r="F90" s="8">
-        <v>41670</v>
+        <v>38856</v>
       </c>
       <c r="G90" s="8">
-        <v>3101</v>
+        <v>3178</v>
       </c>
       <c r="H90" s="8">
-        <v>44771</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B91" s="8">
-        <v>1975803</v>
+        <v>1921948</v>
       </c>
       <c r="C91" s="8">
-        <v>198745</v>
+        <v>197088</v>
       </c>
       <c r="D91" s="8">
-        <v>2174548</v>
+        <v>2119036</v>
       </c>
       <c r="E91" s="17">
-        <v>0.13320000000000001</v>
+        <v>0.1358</v>
       </c>
       <c r="F91" s="8">
-        <v>45209</v>
+        <v>41670</v>
       </c>
       <c r="G91" s="8">
-        <v>3150</v>
+        <v>3101</v>
       </c>
       <c r="H91" s="8">
-        <v>48359</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B92" s="8">
-        <v>2013906</v>
+        <v>1975803</v>
       </c>
       <c r="C92" s="8">
-        <v>199041</v>
+        <v>198745</v>
       </c>
       <c r="D92" s="8">
-        <v>2212947</v>
+        <v>2174548</v>
       </c>
       <c r="E92" s="17">
-        <v>0.13919999999999999</v>
+        <v>0.13320000000000001</v>
       </c>
       <c r="F92" s="8">
-        <v>45225</v>
+        <v>45209</v>
       </c>
       <c r="G92" s="8">
-        <v>3025</v>
+        <v>3150</v>
       </c>
       <c r="H92" s="8">
-        <v>48250</v>
+        <v>48359</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B93" s="8">
-        <v>2071809</v>
+        <v>2013906</v>
       </c>
       <c r="C93" s="8">
-        <v>201782</v>
+        <v>199041</v>
       </c>
       <c r="D93" s="8">
-        <v>2273591</v>
+        <v>2212947</v>
       </c>
       <c r="E93" s="17">
-        <v>0.13150000000000001</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="F93" s="8">
-        <v>49855</v>
+        <v>45225</v>
       </c>
       <c r="G93" s="8">
-        <v>2992</v>
+        <v>3025</v>
       </c>
       <c r="H93" s="8">
-        <v>52847</v>
+        <v>48250</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B94" s="8">
-        <v>2133457</v>
+        <v>2071809</v>
       </c>
       <c r="C94" s="8">
-        <v>204641</v>
+        <v>201782</v>
       </c>
       <c r="D94" s="8">
-        <v>2338098</v>
+        <v>2273591</v>
       </c>
       <c r="E94" s="17">
-        <v>0.13519999999999999</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="F94" s="8">
-        <v>51177</v>
+        <v>49855</v>
       </c>
       <c r="G94" s="8">
-        <v>2892</v>
+        <v>2992</v>
       </c>
       <c r="H94" s="8">
-        <v>54069</v>
+        <v>52847</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B95" s="8">
-        <v>2163729</v>
+        <v>2133457</v>
       </c>
       <c r="C95" s="8">
-        <v>207980</v>
+        <v>204641</v>
       </c>
       <c r="D95" s="8">
-        <v>2371709</v>
+        <v>2338098</v>
       </c>
       <c r="E95" s="17">
-        <v>0.13500000000000001</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="F95" s="8">
-        <v>49220</v>
+        <v>51177</v>
       </c>
       <c r="G95" s="8">
-        <v>2921</v>
+        <v>2892</v>
       </c>
       <c r="H95" s="8">
-        <v>52141</v>
+        <v>54069</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
+        <v>44017</v>
+      </c>
+      <c r="B96" s="8">
+        <v>2163729</v>
+      </c>
+      <c r="C96" s="8">
+        <v>207980</v>
+      </c>
+      <c r="D96" s="8">
+        <v>2371709</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F96" s="8">
+        <v>49220</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2921</v>
+      </c>
+      <c r="H96" s="8">
+        <v>52141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
         <v>44018</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D96" s="8">
+      <c r="B97" s="8">
+        <v>2221287</v>
+      </c>
+      <c r="C97" s="8">
+        <v>210574</v>
+      </c>
+      <c r="D97" s="8">
         <v>2431861</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="E97" s="17">
+        <v>0.1351</v>
+      </c>
+      <c r="F97" s="8">
+        <v>50286</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2560</v>
+      </c>
+      <c r="H97" s="8">
+        <v>52846</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>44019</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="8">
+        <v>2471029</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A101:H101"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9473,7 +9568,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="8">
-        <v>94213</v>
+        <v>95908</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9481,7 +9576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="8">
-        <v>2337648</v>
+        <v>2375121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9489,7 +9584,7 @@
         <v>288</v>
       </c>
       <c r="B5" s="8">
-        <v>2431861</v>
+        <v>2471029</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9543,7 +9638,7 @@
         <v>292</v>
       </c>
       <c r="B3" s="8">
-        <v>207980</v>
+        <v>210574</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9551,7 +9646,7 @@
         <v>293</v>
       </c>
       <c r="B4" s="8">
-        <v>7368</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9571,7 +9666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BDF4D3-0F87-403B-A0EB-3896B2EDB08E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9582,69 +9677,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.90625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="9">
-        <v>8698</v>
+      <c r="A3" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="26">
+        <v>9286</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="9">
-        <v>53680</v>
+      <c r="A4" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="26">
+        <v>54744</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="9">
-        <v>12852</v>
+      <c r="A5" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="26">
+        <v>12925</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1226</v>
+      <c r="A6" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5300</v>
+      <c r="A7" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="26">
+        <v>5283</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9657,8 +9753,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -9675,20 +9771,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10725,17 +10821,28 @@
         <v>8698</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="6">
+        <v>44019</v>
+      </c>
+      <c r="C97" s="9">
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10743,7 +10850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10761,176 +10868,176 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B3" s="11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="19">
         <f>B3/B$16</f>
-        <v>4.0874279321917216E-3</v>
+        <v>4.1936713686618375E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B4" s="11">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.7855606230100681E-2</v>
+        <v>1.7960774346592111E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B5" s="11">
-        <v>1092</v>
+        <v>1122</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>4.6983908441614319E-2</v>
+        <v>4.7528275511500823E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B6" s="11">
-        <v>4139</v>
+        <v>4235</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>0.17808278117201617</v>
+        <v>0.17939594188164529</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B7" s="11">
-        <v>4297</v>
+        <v>4365</v>
       </c>
       <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.18488081920660873</v>
+        <v>0.18490278307281738</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B8" s="11">
-        <v>4179</v>
+        <v>4235</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.17980380345925479</v>
+        <v>0.17939594188164529</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B9" s="11">
-        <v>3926</v>
+        <v>3968</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>0.16891833749247054</v>
+        <v>0.16808573728131487</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B10" s="11">
-        <v>1576</v>
+        <v>1593</v>
       </c>
       <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v>6.7808278117201623E-2</v>
+        <v>6.7479984750285937E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B11" s="11">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>4.9264262972205493E-2</v>
+        <v>4.9010886601431776E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B12" s="11">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="C12" s="19">
         <f t="shared" si="0"/>
-        <v>3.1666810085190601E-2</v>
+        <v>3.1558436057101708E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B13" s="11">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C13" s="19">
         <f t="shared" si="0"/>
-        <v>2.4094312021340675E-2</v>
+        <v>2.3891218706315925E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B14" s="11">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>4.5951295069271147E-2</v>
+        <v>4.5918583471004366E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B15" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="19">
         <f t="shared" si="0"/>
-        <v>6.0235780053351695E-4</v>
+        <v>6.7776506968272128E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10938,7 +11045,7 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>23242</v>
+        <v>23607</v>
       </c>
       <c r="C16" s="19">
         <f t="shared" si="0"/>
@@ -10947,14 +11054,14 @@
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
